--- a/instrumentace.xlsx
+++ b/instrumentace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radim\Desktop\git\project_AUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DD53B-6AFA-44C3-ABC5-3A04258C33A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED540781-8814-44E4-B24F-F36CEFBBCC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DF038C4-59DD-4D8C-89B0-4D36076B5952}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
   <si>
     <t>Rozsah</t>
   </si>
@@ -60,15 +60,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>Odůvodnění</t>
-  </si>
-  <si>
-    <t>Provozní podminky</t>
-  </si>
-  <si>
-    <t>Porovnání</t>
   </si>
   <si>
     <t>Označení</t>
@@ -249,41 +240,164 @@
     <t>-20…40 °C</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Poznámka</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provozní podmínky (mezní teploty, typ média, typ použití atd.)</t>
-    </r>
-  </si>
-  <si>
     <t>Pozn.</t>
   </si>
   <si>
     <t>1445 ot./min</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>-30...130 °C</t>
+  </si>
+  <si>
+    <t>5…95 % r. v.</t>
+  </si>
+  <si>
+    <t>odporový
+výstup</t>
+  </si>
+  <si>
+    <t>±1 K</t>
+  </si>
+  <si>
+    <t>0,5…10 V</t>
+  </si>
+  <si>
+    <t>příložné
+čidlo</t>
+  </si>
+  <si>
+    <t>0…135 m^3/h</t>
+  </si>
+  <si>
+    <t>-20…120 °C
+1600 kPa</t>
+  </si>
+  <si>
+    <t>0,07 V*h/m^3</t>
+  </si>
+  <si>
+    <t>F02.01</t>
+  </si>
+  <si>
+    <t>závit DN50</t>
+  </si>
+  <si>
+    <t>±2 %</t>
+  </si>
+  <si>
+    <t>0…21 m^3/h</t>
+  </si>
+  <si>
+    <t>0,45 V*h/m^3</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>S01.01</t>
+  </si>
+  <si>
+    <t>L01.01</t>
+  </si>
+  <si>
+    <t>L01.02</t>
+  </si>
+  <si>
+    <t>-50...150 °C</t>
+  </si>
+  <si>
+    <t>4…20 mA</t>
+  </si>
+  <si>
+    <t>0,08 mA/°C</t>
+  </si>
+  <si>
+    <t>±0.3 K</t>
+  </si>
+  <si>
+    <t>30 Mpa</t>
+  </si>
+  <si>
+    <t>0,04 K</t>
+  </si>
+  <si>
+    <t>závit G1/2</t>
+  </si>
+  <si>
+    <t>-40…300 °C</t>
+  </si>
+  <si>
+    <t>v motoru</t>
+  </si>
+  <si>
+    <t>odpor</t>
+  </si>
+  <si>
+    <t>±6 K</t>
+  </si>
+  <si>
+    <t>13,8 Ω/K</t>
+  </si>
+  <si>
+    <t>0,39 Ω/°C</t>
+  </si>
+  <si>
+    <t>NPN/PNP</t>
+  </si>
+  <si>
+    <t>on/off</t>
+  </si>
+  <si>
+    <t>závit G3/4</t>
+  </si>
+  <si>
+    <t>-40...100°C</t>
+  </si>
+  <si>
+    <t>závit G1</t>
+  </si>
+  <si>
+    <t>0,15…2 m</t>
+  </si>
+  <si>
+    <t>8,65 mA/m</t>
+  </si>
+  <si>
+    <t>&lt;1 mm</t>
+  </si>
+  <si>
+    <t>±0,15 %</t>
+  </si>
+  <si>
+    <t>-30…70°C</t>
+  </si>
+  <si>
+    <t>3…6000 ot./min</t>
+  </si>
+  <si>
+    <t>-20…80°C</t>
+  </si>
+  <si>
+    <t>pulzní</t>
+  </si>
+  <si>
+    <t>závit M18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,14 +439,6 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +448,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -450,21 +556,6 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -497,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,77 +606,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,616 +1002,800 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D7AA1C-20CF-4490-A041-11CADF853C8E}">
-  <dimension ref="A2:AH20"/>
+  <dimension ref="A2:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="3.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="1" customWidth="1"/>
-    <col min="28" max="29" width="12.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="6.85546875" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="3.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="6.85546875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="U4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="AB4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="21"/>
+      <c r="X5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="23"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="16"/>
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="26"/>
+      <c r="X6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="26"/>
+    </row>
+    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="N7" s="7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="16"/>
+      <c r="X7" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="16"/>
+    </row>
+    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="N8" s="7">
+        <v>4</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="19"/>
+      <c r="X8" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF8" s="8"/>
+    </row>
+    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="N9" s="7">
+        <v>5</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="26"/>
+      <c r="X9" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="8"/>
+    </row>
+    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="N10" s="7">
+        <v>6</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="26"/>
+      <c r="X10" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="19"/>
+    </row>
+    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="N11" s="7">
+        <v>7</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="16"/>
+      <c r="X11" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="16"/>
+    </row>
+    <row r="12" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="N12" s="7">
+        <v>8</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="C13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="C14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="16"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="P5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="10"/>
-      <c r="Z5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH5" s="8"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="L15" s="11"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="P6" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="15"/>
-      <c r="Z6" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="15"/>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="L16" s="11"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C7" s="13">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="P7" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="17"/>
-      <c r="Z7" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="17"/>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="11"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C8" s="13">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="P8" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="X8" s="24"/>
-      <c r="Z8" s="13">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG8" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH8" s="14"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C9" s="13">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="P9" s="13">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="15"/>
-      <c r="Z9" s="13">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH9" s="14"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C10" s="13">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="P10" s="13">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="15"/>
-      <c r="Z10" s="13">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF10" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH10" s="24"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="P11" s="13">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="17"/>
-      <c r="Z11" s="13">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="17"/>
-    </row>
-    <row r="12" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="P12" s="13">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="X12" s="14"/>
-    </row>
-    <row r="13" spans="1:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M13" s="28"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="M15" s="31"/>
-      <c r="N15" s="26"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="M16" s="31"/>
-      <c r="N16" s="26"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M18" s="31"/>
-      <c r="N18" s="26"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M19" s="31"/>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="M20" s="31"/>
-      <c r="N20" s="26"/>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="AH5:AH7"/>
+  <mergeCells count="46">
     <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
     <mergeCell ref="AB10:AB11"/>
     <mergeCell ref="AC10:AC11"/>
     <mergeCell ref="AD10:AD11"/>
     <mergeCell ref="AE10:AE11"/>
     <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="Q8:Q11"/>
     <mergeCell ref="R8:R11"/>
     <mergeCell ref="S8:S11"/>
     <mergeCell ref="T8:T11"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
     <mergeCell ref="U8:U11"/>
     <mergeCell ref="V8:V11"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="X8:X11"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="P5:P7"/>
     <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W5:W7" r:id="rId1" display="aaa" xr:uid="{38E525EA-0855-45AF-9911-29AB5D5DB685}"/>
-    <hyperlink ref="AG5:AG7" r:id="rId2" display="URL" xr:uid="{E750350F-05AC-4C5E-9B33-485DBCE2C1AB}"/>
-    <hyperlink ref="W8:W11" r:id="rId3" display="URL" xr:uid="{302E3378-BB84-47A9-A3BD-AC96AF97E6C4}"/>
-    <hyperlink ref="W12" r:id="rId4" xr:uid="{7CC52B5E-21E3-424D-8276-9EE41639D1C3}"/>
-    <hyperlink ref="AG9" r:id="rId5" xr:uid="{1D67DDE3-4241-4653-A3A9-2D45FFD2DC2E}"/>
-    <hyperlink ref="AG10:AG11" r:id="rId6" display="URL" xr:uid="{5A87E9CF-E52F-4A77-A6DA-192357D9AB7A}"/>
-    <hyperlink ref="AG8" r:id="rId7" xr:uid="{E75D633E-1A74-4BC0-B96D-44BD578BDC7A}"/>
+    <hyperlink ref="U5:U7" r:id="rId1" display="aaa" xr:uid="{38E525EA-0855-45AF-9911-29AB5D5DB685}"/>
+    <hyperlink ref="AE5:AE7" r:id="rId2" display="URL" xr:uid="{E750350F-05AC-4C5E-9B33-485DBCE2C1AB}"/>
+    <hyperlink ref="U8:U11" r:id="rId3" display="URL" xr:uid="{302E3378-BB84-47A9-A3BD-AC96AF97E6C4}"/>
+    <hyperlink ref="U12" r:id="rId4" xr:uid="{7CC52B5E-21E3-424D-8276-9EE41639D1C3}"/>
+    <hyperlink ref="AE9" r:id="rId5" xr:uid="{1D67DDE3-4241-4653-A3A9-2D45FFD2DC2E}"/>
+    <hyperlink ref="AE10:AE11" r:id="rId6" display="URL" xr:uid="{5A87E9CF-E52F-4A77-A6DA-192357D9AB7A}"/>
+    <hyperlink ref="AE8" r:id="rId7" xr:uid="{E75D633E-1A74-4BC0-B96D-44BD578BDC7A}"/>
+    <hyperlink ref="K13:K14" r:id="rId8" display="URL" xr:uid="{5AF7ABAA-C513-484D-8391-D8931C9777B1}"/>
+    <hyperlink ref="K5:K6" r:id="rId9" display="URL" xr:uid="{62771EAF-DBB0-48D5-870B-6B2335198D22}"/>
+    <hyperlink ref="K12" r:id="rId10" xr:uid="{146C8C7D-A05E-4D10-B875-03D4B037AACF}"/>
+    <hyperlink ref="K7" r:id="rId11" xr:uid="{F5735FBA-E793-4774-91BB-8894AEF9149A}"/>
+    <hyperlink ref="K8" r:id="rId12" xr:uid="{61707BAA-B74A-4B70-9433-37F756A9E0CD}"/>
+    <hyperlink ref="K11" r:id="rId13" xr:uid="{202B5A24-7105-44E4-911C-07CADB855E11}"/>
+    <hyperlink ref="K10" r:id="rId14" xr:uid="{38C66968-C7A8-4F98-80F9-7D676E68DD9A}"/>
+    <hyperlink ref="K9" r:id="rId15" xr:uid="{408F019F-B266-4776-ACC9-2DE91432F16E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/instrumentace.xlsx
+++ b/instrumentace.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radim\Desktop\git\project_AUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skola - magistr\druhák\MPC-AUP\projekt\project_AUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED540781-8814-44E4-B24F-F36CEFBBCC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E23130-B464-447C-9C19-BB3E0DB3B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DF038C4-59DD-4D8C-89B0-4D36076B5952}"/>
+    <workbookView xWindow="6000" yWindow="468" windowWidth="18720" windowHeight="11628" xr2:uid="{3DF038C4-59DD-4D8C-89B0-4D36076B5952}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>Rozsah</t>
   </si>
@@ -391,6 +391,75 @@
   </si>
   <si>
     <t>závit M18</t>
+  </si>
+  <si>
+    <t>Typ modulu</t>
+  </si>
+  <si>
+    <t>MODULE1</t>
+  </si>
+  <si>
+    <t>MODULE2</t>
+  </si>
+  <si>
+    <t>MODULE3</t>
+  </si>
+  <si>
+    <t>KM1</t>
+  </si>
+  <si>
+    <t>FR1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitální vstupní/výstupní modul </t>
+  </si>
+  <si>
+    <t>Analogový výstupní modul</t>
+  </si>
+  <si>
+    <t>AQ 4xU/I HF</t>
+  </si>
+  <si>
+    <t>Analogový vstupní modul</t>
+  </si>
+  <si>
+    <t>AI 8xU/I/RTD BA</t>
+  </si>
+  <si>
+    <t>DI 16x24VDC DQ16x24VDC/0,5A</t>
+  </si>
+  <si>
+    <t>Popis</t>
+  </si>
+  <si>
+    <t>Poznámka</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>SIMATIC S7-1500</t>
+  </si>
+  <si>
+    <t>Zdroj</t>
+  </si>
+  <si>
+    <t>PS 25W 24 V DC</t>
+  </si>
+  <si>
+    <t>Stykač</t>
+  </si>
+  <si>
+    <t>Motorový spouštěč</t>
+  </si>
+  <si>
+    <t>Pojistka</t>
   </si>
 </sst>
 </file>
@@ -448,7 +517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -583,12 +652,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,61 +740,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,48 +1130,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D7AA1C-20CF-4490-A041-11CADF853C8E}">
-  <dimension ref="A2:AF18"/>
+  <dimension ref="A2:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="3.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="3.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" style="1" customWidth="1"/>
-    <col min="26" max="27" width="12.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.28515625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.109375" style="1"/>
+    <col min="24" max="24" width="3.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12.109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.44140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="6.88671875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1054,8 +1182,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1138,7 +1266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -1148,66 +1276,66 @@
       <c r="D5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="29" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="21"/>
+      <c r="K5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="29"/>
       <c r="N5" s="5">
         <v>1</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="21"/>
+      <c r="U5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="29"/>
       <c r="X5" s="5">
         <v>1</v>
       </c>
       <c r="Y5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AC5" s="20" t="s">
@@ -1216,55 +1344,55 @@
       <c r="AD5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AE5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="23"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="19"/>
       <c r="N6" s="7">
         <v>2</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
       <c r="U6" s="28"/>
-      <c r="V6" s="26"/>
+      <c r="V6" s="18"/>
       <c r="X6" s="7">
         <v>2</v>
       </c>
       <c r="Y6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
       <c r="AE6" s="28"/>
-      <c r="AF6" s="26"/>
-    </row>
-    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="AF6" s="18"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1302,28 +1430,28 @@
       <c r="O7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="16"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="19"/>
       <c r="X7" s="7">
         <v>3</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="16"/>
-    </row>
-    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="19"/>
+    </row>
+    <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -1361,25 +1489,25 @@
       <c r="O8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="19"/>
+      <c r="U8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="21"/>
       <c r="X8" s="7">
         <v>4</v>
       </c>
@@ -1406,7 +1534,7 @@
       </c>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1444,13 +1572,13 @@
       <c r="O9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
       <c r="U9" s="28"/>
-      <c r="V9" s="26"/>
+      <c r="V9" s="18"/>
       <c r="X9" s="7">
         <v>5</v>
       </c>
@@ -1477,7 +1605,7 @@
       </c>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -1496,7 +1624,7 @@
       <c r="G10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="16" t="s">
         <v>109</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1515,40 +1643,40 @@
       <c r="O10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="28"/>
-      <c r="V10" s="26"/>
+      <c r="V10" s="18"/>
       <c r="X10" s="7">
         <v>6</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Z10" s="19" t="s">
+      <c r="Z10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AA10" s="19" t="s">
+      <c r="AA10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" s="19" t="s">
+      <c r="AB10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AC10" s="25" t="s">
+      <c r="AC10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD10" s="31" t="s">
+      <c r="AD10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AE10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF10" s="19"/>
-    </row>
-    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="AE10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="21"/>
+    </row>
+    <row r="11" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="7">
         <v>7</v>
@@ -1587,28 +1715,28 @@
       <c r="O11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="16"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="19"/>
       <c r="X11" s="7">
         <v>7</v>
       </c>
       <c r="Y11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="16"/>
-    </row>
-    <row r="12" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="19"/>
+    </row>
+    <row r="12" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -1666,70 +1794,280 @@
       </c>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="K13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="L18" s="11"/>
     </row>
+    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>5</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="39"/>
+      <c r="C25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U8:U11"/>
+    <mergeCell ref="V8:V11"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="Q8:Q11"/>
+    <mergeCell ref="R8:R11"/>
+    <mergeCell ref="S8:S11"/>
+    <mergeCell ref="T8:T11"/>
     <mergeCell ref="AF5:AF7"/>
     <mergeCell ref="AD5:AD7"/>
     <mergeCell ref="Z10:Z11"/>
@@ -1744,38 +2082,6 @@
     <mergeCell ref="AB5:AB7"/>
     <mergeCell ref="AC5:AC7"/>
     <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="Q8:Q11"/>
-    <mergeCell ref="R8:R11"/>
-    <mergeCell ref="S8:S11"/>
-    <mergeCell ref="T8:T11"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U8:U11"/>
-    <mergeCell ref="V8:V11"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1794,8 +2100,16 @@
     <hyperlink ref="K11" r:id="rId13" xr:uid="{202B5A24-7105-44E4-911C-07CADB855E11}"/>
     <hyperlink ref="K10" r:id="rId14" xr:uid="{38C66968-C7A8-4F98-80F9-7D676E68DD9A}"/>
     <hyperlink ref="K9" r:id="rId15" xr:uid="{408F019F-B266-4776-ACC9-2DE91432F16E}"/>
+    <hyperlink ref="F21" r:id="rId16" xr:uid="{B3F150E3-DB87-4868-8B37-BB3D13378DE2}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{D7C911F9-EF9F-4D57-A048-912D5A33F552}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{39999D14-59F4-4448-AA7A-675294D930F7}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{6910AC38-9869-4AE5-9A22-E22ECE2403FB}"/>
+    <hyperlink ref="F23" r:id="rId20" xr:uid="{231AAE46-4AA4-4C92-9E45-80506D7D2CC2}"/>
+    <hyperlink ref="E26" r:id="rId21" xr:uid="{278F04A7-9F0B-4345-AAD9-70239AE02761}"/>
+    <hyperlink ref="E27" r:id="rId22" xr:uid="{36BF310F-5A7D-448C-B745-2C0DC47E584D}"/>
+    <hyperlink ref="E28:E29" r:id="rId23" display="URL" xr:uid="{0E4C73A2-8DF2-4377-AF66-E633928EA9B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>